--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
     <sheet name="内存" sheetId="1" r:id="rId2"/>
     <sheet name="动态视图" sheetId="3" r:id="rId3"/>
     <sheet name="系统表" sheetId="4" r:id="rId4"/>
+    <sheet name="实用系统存储过程" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -88,8 +89,48 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0  online在线
+1 restoring 正在还原数据库
+2 recovering 这是一个暂时性的状态，当恢复成功后，文件将自动变为在线状态
+3 recover_pending 文件恢复已延期
+4 suspect 文件已破坏
+5 emergency 主要用于故障排除
+6 offline 文件已离线</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="183">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,13 +723,168 @@
   </si>
   <si>
     <t>返回有关在 SQL Server 中执行的每个请求的信息。</t>
+  </si>
+  <si>
+    <t>information_schema.domains</t>
+  </si>
+  <si>
+    <t>information_schema.column_domain_usage</t>
+  </si>
+  <si>
+    <t>查看用户定义数据类型的使用情况</t>
+  </si>
+  <si>
+    <t>通用帮助信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_helpdb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hk_erp_pt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sp_cost_GetPurInDeprRateInv</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_helpfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的重命名</t>
+  </si>
+  <si>
+    <t>sp_rename tb1,tb12</t>
+  </si>
+  <si>
+    <t>修改列名</t>
+  </si>
+  <si>
+    <t>sp_rename 'tb12.name','name_new','column'</t>
+  </si>
+  <si>
+    <t>视图信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema.views</t>
+  </si>
+  <si>
+    <t>视图的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema.COLUMNS</t>
+  </si>
+  <si>
+    <t>查看对象的列信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema.VIEW_COLUMN_USAGE</t>
+  </si>
+  <si>
+    <t>视图引用的列和表详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema.VIEW_TABLE_USAGE</t>
+  </si>
+  <si>
+    <t>视图中包含表的信息</t>
+  </si>
+  <si>
+    <t>统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.stats</t>
+  </si>
+  <si>
+    <t>统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.stats_columns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +962,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -793,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -816,12 +1026,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -841,17 +1088,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1156,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1171,7 +1425,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41608.860660995371</v>
+        <v>41610.698006250001</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1717,7 +1971,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41608.860660995371</v>
+        <v>41610.698006250001</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2029,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2053,38 +2307,38 @@
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C5" t="s">
@@ -2101,7 +2355,7 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C6" t="s">
@@ -2130,55 +2384,55 @@
       <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
@@ -2206,7 +2460,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C17" t="s">
@@ -2215,7 +2469,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -2238,7 +2492,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C25" t="s">
@@ -2246,16 +2500,16 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="18"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C28" t="s">
@@ -2268,7 +2522,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C31" t="s">
@@ -2276,7 +2530,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C32" t="s">
@@ -2310,11 +2564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2324,274 +2578,467 @@
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
+    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2600,5 +3047,65 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="动态视图" sheetId="3" r:id="rId3"/>
     <sheet name="系统表" sheetId="4" r:id="rId4"/>
     <sheet name="实用系统存储过程" sheetId="5" r:id="rId5"/>
+    <sheet name="系统函数" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -95,6 +96,26 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">架构schema
+ 是独立于数据库用户的非重复命名空间，也就是说，架构只是对象的容器，任何用户都可以拥有架构，并且架构所有权可以转移.
+它把用户和数据库对象分离
+ 对象可以在架构间移动.
+ 单个架构可以包含由多个数据库用户拥有的对象.
+ 多个数据库用户可以共享单个默认架构
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B2" authorId="0">
       <text>
         <r>
@@ -130,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,6 +899,25 @@
   </si>
   <si>
     <t>sys.stats_columns</t>
+  </si>
+  <si>
+    <t>sys.triggers</t>
+  </si>
+  <si>
+    <t>object_id()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_name()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_id()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col_length()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1093,12 +1133,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1106,6 +1140,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1425,7 +1465,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41610.698006250001</v>
+        <v>41611.347606944444</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1971,7 +2011,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41610.698006250001</v>
+        <v>41611.347606944444</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2307,35 +2347,35 @@
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
@@ -2384,52 +2424,52 @@
       <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
@@ -2568,7 +2608,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2770,41 +2810,41 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" t="s">
         <v>170</v>
       </c>
@@ -2870,7 +2910,9 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2952,93 +2994,93 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3108,4 +3150,44 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41611.347606944444</v>
+        <v>41611.757576157404</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2011,7 +2011,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41611.347606944444</v>
+        <v>41611.757576157404</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3156,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,12 +919,31 @@
     <t>col_length()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>master_files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 数据库中的每个文件对应一行</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1032,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1108,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1146,6 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1465,7 +1493,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41611.757576157404</v>
+        <v>41612.34030729167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2011,7 +2039,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41611.757576157404</v>
+        <v>41612.34030729167</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2605,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2719,31 +2747,31 @@
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="17" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" t="s">
-        <v>142</v>
+      <c r="I8" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>127</v>
+      <c r="D9" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,21 +2779,24 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="D11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -2776,26 +2807,26 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -2804,64 +2835,61 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2869,14 +2897,14 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2884,14 +2912,14 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2899,19 +2927,22 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2922,7 +2953,9 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2931,38 +2964,36 @@
     <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="D25" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -2974,7 +3005,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2986,57 +3017,59 @@
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+    <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="C31" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="D31" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
+      <c r="I31" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -3082,14 +3115,25 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="系统表" sheetId="4" r:id="rId4"/>
     <sheet name="实用系统存储过程" sheetId="5" r:id="rId5"/>
     <sheet name="系统函数" sheetId="6" r:id="rId6"/>
+    <sheet name="msdb数据库" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1167,13 +1168,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1493,7 +1494,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41612.34030729167</v>
+        <v>41614.755096759262</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2039,7 +2040,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41612.34030729167</v>
+        <v>41614.755096759262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2375,35 +2376,35 @@
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
@@ -2452,52 +2453,52 @@
       <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
@@ -2635,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2755,7 +2756,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3234,4 +3235,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,6 +938,13 @@
       </rPr>
       <t xml:space="preserve"> 数据库中的每个文件对应一行</t>
     </r>
+  </si>
+  <si>
+    <t>performace_counters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为服务器维护的每个性能计数器返回一行</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1501,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41614.755096759262</v>
+        <v>41616.603255555558</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2040,7 +2047,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41614.755096759262</v>
+        <v>41616.603255555558</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2350,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,29 +2379,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -2407,28 +2405,28 @@
       <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2440,195 +2438,213 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="16"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C5:L5"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B31" r:id="rId3"/>
-    <hyperlink ref="B32" r:id="rId4"/>
-    <hyperlink ref="B25" r:id="rId5"/>
-    <hyperlink ref="B28" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B33" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3241,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,18 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SqlServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专享内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为硬件保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,66 +273,6 @@
   </si>
   <si>
     <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面文件数量</t>
-  </si>
-  <si>
-    <t>Commit Limit</t>
-  </si>
-  <si>
-    <t>KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Available Mbytes</t>
-  </si>
-  <si>
-    <t>pages/sec</t>
-  </si>
-  <si>
-    <t>Cache Bytes</t>
-  </si>
-  <si>
-    <t>Nonpaged bytes</t>
-  </si>
-  <si>
-    <t>paged resident Bytes</t>
-  </si>
-  <si>
-    <t>进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processor Time</t>
-  </si>
-  <si>
-    <t>Page Faults/sec</t>
-  </si>
-  <si>
-    <t>Handle Count</t>
-  </si>
-  <si>
-    <t>Thread Count</t>
-  </si>
-  <si>
-    <t>Pool Paged Bytes</t>
-  </si>
-  <si>
-    <t>Pool Nonpaged Bytes</t>
-  </si>
-  <si>
-    <t>Working Set</t>
-  </si>
-  <si>
-    <t>Virtual Bytes</t>
-  </si>
-  <si>
-    <t>Private Bytes</t>
-  </si>
-  <si>
-    <t>1.8989+010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -945,6 +873,14 @@
   </si>
   <si>
     <t>为服务器维护的每个性能计数器返回一行</t>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1052,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,12 +1004,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1159,7 +1089,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1484,542 +1413,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
+      <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41616.603255555558</v>
+        <v>41617.790215162036</v>
+      </c>
+      <c r="D1" s="4">
+        <v>41604.293323379628</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41617.720802662036</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>41604.293323379628</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>54952268</v>
+      </c>
+      <c r="E2">
+        <v>59812824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>66392</v>
+      </c>
+      <c r="E3">
+        <v>66700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>55018428</v>
+      </c>
+      <c r="E4">
+        <v>59879500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>55533488</v>
+      </c>
+      <c r="E5">
+        <v>60973768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>65604</v>
+      </c>
+      <c r="E8">
+        <v>72057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10">
+        <v>3634</v>
+      </c>
+      <c r="E10">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11">
+        <v>18399</v>
+      </c>
+      <c r="E11">
+        <v>16025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3925499904</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8161173504</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1085000</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>171</v>
+      </c>
+      <c r="D13">
+        <v>75803660808</v>
+      </c>
+      <c r="E13">
+        <v>84382576104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14">
+        <v>93006123008</v>
+      </c>
+      <c r="E14">
+        <v>97710034944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15">
+        <v>22031</v>
+      </c>
+      <c r="E15">
+        <v>20376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="E16">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5">
-        <v>194510848</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5">
-        <v>116838400</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="5">
-        <v>255578112</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5">
-        <v>405.17399999999998</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5">
-        <v>13424.761</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="5">
-        <v>35999000</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1622</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5">
-        <v>18525792</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3291768</v>
-      </c>
-      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2427363328</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>1380416</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>1233792</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2666536960</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>130240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>41606.236236226854</v>
-      </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29">
+        <v>56338</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="D29">
-        <v>54952268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>56270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="D30">
-        <v>66392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31">
-        <v>55018428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32">
-        <v>55533488</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35">
-        <v>65604000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>3634000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38">
-        <v>18399</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40">
-        <v>75803660808</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41">
-        <v>93006123008</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42">
-        <v>22031</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45">
-        <v>330</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46">
-        <v>296</v>
-      </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47">
-        <v>546</v>
-      </c>
-      <c r="E47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52">
-        <v>1380416</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53">
-        <v>1233792</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55">
-        <v>130240</v>
-      </c>
-      <c r="E55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56">
-        <v>56338</v>
-      </c>
-      <c r="E56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57">
-        <v>56270</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58">
         <v>56464</v>
       </c>
     </row>
@@ -2047,7 +1772,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41616.603255555558</v>
+        <v>41617.790215162036</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2222,7 +1947,7 @@
         <v>41606.236236226854</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>2440</v>
@@ -2230,7 +1955,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2238,7 +1963,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>58824</v>
@@ -2246,7 +1971,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2254,7 +1979,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>59272</v>
@@ -2262,7 +1987,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>217432</v>
@@ -2270,7 +1995,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>71496312</v>
@@ -2278,7 +2003,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>54805120</v>
@@ -2286,7 +2011,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -2294,7 +2019,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2302,7 +2027,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>5005986</v>
@@ -2310,7 +2035,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2318,7 +2043,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>2521990</v>
@@ -2326,7 +2051,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2334,7 +2059,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2342,7 +2067,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>163741696</v>
@@ -2359,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2371,254 +2096,254 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
-        <v>190</v>
+      <c r="B3" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16" t="s">
-        <v>143</v>
+      <c r="B6" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16" t="s">
-        <v>155</v>
+      <c r="B7" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="B12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="16" t="s">
-        <v>65</v>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>118</v>
+      <c r="B18" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="16" t="s">
-        <v>151</v>
+      <c r="B26" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="16" t="s">
-        <v>151</v>
+      <c r="B29" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="16" t="s">
-        <v>146</v>
+      <c r="B32" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="16" t="s">
-        <v>148</v>
+      <c r="B33" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2667,480 +2392,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3169,42 +2894,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3228,22 +2953,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="186">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,13 @@
   </si>
   <si>
     <t>virtual_file_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sql_modules</t>
+  </si>
+  <si>
+    <t>查看存储过程，触发器，视图和其它sql定义对象的定义和设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,7 +1530,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41636.898972569441</v>
+        <v>41641.078562268522</v>
       </c>
       <c r="C1" t="s">
         <v>137</v>
@@ -2173,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2645,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2987,47 +2994,50 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="D27" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3039,7 +3049,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -3051,63 +3061,65 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+    <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="D33" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3117,7 +3129,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3127,7 +3139,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3137,7 +3149,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -3146,6 +3158,16 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="192">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,30 @@
   </si>
   <si>
     <t>查看存储过程，触发器，视图和其它sql定义对象的定义和设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>databasepropertyex()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverproperty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_name()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_id()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_name()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionproperty()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1554,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41641.078562268522</v>
+        <v>41643.429052314816</v>
       </c>
       <c r="C1" t="s">
         <v>137</v>
@@ -2654,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -3242,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3271,6 +3295,36 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监测脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys.partitions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys.allocation_units</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -997,6 +993,10 @@
   </si>
   <si>
     <t>sessionproperty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.partitions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,10 +1554,10 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41643.429052314816</v>
+        <v>41649.641236342592</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2">
         <v>41604.293323379628</v>
@@ -1642,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>65604</v>
@@ -1656,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1670,7 +1670,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10">
         <v>3634</v>
@@ -1684,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>18399</v>
@@ -1698,10 +1698,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>75803660808</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16">
         <v>59621288</v>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <v>71462824</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="24"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41">
         <v>3766312</v>
@@ -1980,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43">
         <v>160</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45">
         <v>163741696</v>
@@ -2019,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F46">
         <v>5209353</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>168</v>
-      </c>
-      <c r="B48" t="s">
-        <v>169</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2039,7 +2039,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H49">
         <v>32</v>
@@ -2048,7 +2048,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50">
         <v>738</v>
@@ -2057,7 +2057,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2069,7 +2069,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H52">
         <v>133</v>
@@ -2078,7 +2078,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H53">
         <v>141</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H56">
         <v>68191</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
         <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>179</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F62">
         <v>378752</v>
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63">
         <v>208448</v>
@@ -2160,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F64">
         <v>105360</v>
@@ -2171,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65">
         <v>74840</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
       </c>
       <c r="F66">
         <v>14808</v>
@@ -2204,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2225,10 +2225,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="13"/>
       <c r="F12" s="25"/>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>58</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
         <v>145</v>
-      </c>
-      <c r="E14" t="s">
-        <v>146</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="25"/>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D20" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>25</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="21" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>26</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D22" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>27</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
         <v>141</v>
-      </c>
-      <c r="E23" t="s">
-        <v>142</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -2528,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2556,7 +2556,7 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -2575,15 +2575,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D36" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
         <v>95</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2591,16 +2591,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D39" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2608,39 +2608,39 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D45" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
         <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D46" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2678,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,10 +2694,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2733,7 +2733,7 @@
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2748,7 +2748,7 @@
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2784,17 +2784,17 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2802,14 +2802,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2817,14 +2817,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2847,7 +2847,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2860,7 +2860,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2872,13 +2872,13 @@
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2900,7 +2900,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2912,12 +2912,12 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,14 +2935,14 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2950,14 +2950,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2965,14 +2965,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2980,14 +2980,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3007,7 +3007,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -3019,14 +3019,14 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3061,7 +3061,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3073,7 +3073,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -3085,7 +3085,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -3097,7 +3097,7 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3118,17 +3118,17 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -3136,7 +3136,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3210,7 +3210,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3220,42 +3220,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3279,52 +3279,52 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
